--- a/testcase_results.xlsx
+++ b/testcase_results.xlsx
@@ -480,12 +480,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Login with invalid credentials</t>
+          <t>Search the product</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,28 +495,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>screenshot2.png</t>
+          <t>screenshot1.png</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>None</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1. Open app
-2. Enter invalid credentials</t>
+          <t>None</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Login should fail</t>
+          <t>User should search desired product</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Login failed as expected</t>
+          <t>As expected</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
